--- a/artfynd/A 31537-2020.xlsx
+++ b/artfynd/A 31537-2020.xlsx
@@ -1478,10 +1478,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>103206713</v>
+        <v>103636871</v>
       </c>
       <c r="B9" t="n">
-        <v>96334</v>
+        <v>56395</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1490,50 +1490,46 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Bergom/Kroksgård - Rödön, Jmt</t>
+          <t>Bergom - Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>472198.9007623708</v>
+        <v>472516.7485192241</v>
       </c>
       <c r="R9" t="n">
-        <v>7017350.364024058</v>
+        <v>7016947.556961586</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1560,7 +1556,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-08-22</t>
+          <t>2022-09-08</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1570,7 +1566,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-08-22</t>
+          <t>2022-09-08</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1584,7 +1580,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1603,10 +1598,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>103636893</v>
+        <v>103636870</v>
       </c>
       <c r="B10" t="n">
-        <v>96334</v>
+        <v>56395</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1615,38 +1610,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Bergom - Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>472928.6702964447</v>
+        <v>472507.7934395059</v>
       </c>
       <c r="R10" t="n">
-        <v>7016573.647136474</v>
+        <v>7016954.384313107</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1715,7 +1718,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>103636871</v>
+        <v>103636872</v>
       </c>
       <c r="B11" t="n">
         <v>56395</v>
@@ -1763,10 +1766,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>472516.7485192241</v>
+        <v>472519.833804908</v>
       </c>
       <c r="R11" t="n">
-        <v>7016947.556961586</v>
+        <v>7016939.429568958</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1835,10 +1838,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>103636892</v>
+        <v>106082248</v>
       </c>
       <c r="B12" t="n">
-        <v>96334</v>
+        <v>56395</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1847,41 +1850,53 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Bergom - Rödön, Jmt</t>
+          <t>Tretåig hackspett, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>472939.4717169611</v>
+        <v>472527.1055015869</v>
       </c>
       <c r="R12" t="n">
-        <v>7016571.755861398</v>
+        <v>7016946.568404312</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1905,22 +1920,27 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2022-09-08</t>
+          <t>2023-01-20</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2022-09-08</t>
+          <t>2023-01-20</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>På död välbearbetad gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1935,22 +1955,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristofer Holmsten</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristofer Holmsten</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>103636870</v>
+        <v>103206713</v>
       </c>
       <c r="B13" t="n">
-        <v>56395</v>
+        <v>96334</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1959,46 +1979,50 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Bergom - Rödön, Jmt</t>
+          <t>Bergom/Kroksgård - Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>472507.7934395059</v>
+        <v>472198.9007623708</v>
       </c>
       <c r="R13" t="n">
-        <v>7016954.384313107</v>
+        <v>7017350.364024058</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2025,7 +2049,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2022-09-08</t>
+          <t>2022-08-22</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2035,7 +2059,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2022-09-08</t>
+          <t>2022-08-22</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2049,6 +2073,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2067,10 +2092,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>103636872</v>
+        <v>103636893</v>
       </c>
       <c r="B14" t="n">
-        <v>56395</v>
+        <v>96334</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2079,46 +2104,38 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Bergom - Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>472519.833804908</v>
+        <v>472928.6702964447</v>
       </c>
       <c r="R14" t="n">
-        <v>7016939.429568958</v>
+        <v>7016573.647136474</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2187,10 +2204,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>106082248</v>
+        <v>103636892</v>
       </c>
       <c r="B15" t="n">
-        <v>56395</v>
+        <v>96334</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2199,53 +2216,41 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett, Jmt</t>
+          <t>Bergom - Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>472527.1055015869</v>
+        <v>472939.4717169611</v>
       </c>
       <c r="R15" t="n">
-        <v>7016946.568404312</v>
+        <v>7016571.755861398</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2269,27 +2274,22 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-01-20</t>
+          <t>2022-09-08</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-01-20</t>
+          <t>2022-09-08</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>På död välbearbetad gran.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2304,12 +2304,12 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Kristofer Holmsten</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Kristofer Holmsten</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>

--- a/artfynd/A 31537-2020.xlsx
+++ b/artfynd/A 31537-2020.xlsx
@@ -1478,10 +1478,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>103636871</v>
+        <v>103206713</v>
       </c>
       <c r="B9" t="n">
-        <v>56395</v>
+        <v>96334</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1490,46 +1490,50 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Bergom - Rödön, Jmt</t>
+          <t>Bergom/Kroksgård - Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>472516.7485192241</v>
+        <v>472198.9007623708</v>
       </c>
       <c r="R9" t="n">
-        <v>7016947.556961586</v>
+        <v>7017350.364024058</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1556,7 +1560,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-09-08</t>
+          <t>2022-08-22</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1566,7 +1570,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-09-08</t>
+          <t>2022-08-22</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1580,6 +1584,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1598,10 +1603,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>103636870</v>
+        <v>103636893</v>
       </c>
       <c r="B10" t="n">
-        <v>56395</v>
+        <v>96334</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1610,46 +1615,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Bergom - Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>472507.7934395059</v>
+        <v>472928.6702964447</v>
       </c>
       <c r="R10" t="n">
-        <v>7016954.384313107</v>
+        <v>7016573.647136474</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1718,7 +1715,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>103636872</v>
+        <v>103636871</v>
       </c>
       <c r="B11" t="n">
         <v>56395</v>
@@ -1766,10 +1763,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>472519.833804908</v>
+        <v>472516.7485192241</v>
       </c>
       <c r="R11" t="n">
-        <v>7016939.429568958</v>
+        <v>7016947.556961586</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1838,10 +1835,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>106082248</v>
+        <v>103636892</v>
       </c>
       <c r="B12" t="n">
-        <v>56395</v>
+        <v>96334</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1850,53 +1847,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett, Jmt</t>
+          <t>Bergom - Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>472527.1055015869</v>
+        <v>472939.4717169611</v>
       </c>
       <c r="R12" t="n">
-        <v>7016946.568404312</v>
+        <v>7016571.755861398</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1920,27 +1905,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-01-20</t>
+          <t>2022-09-08</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-01-20</t>
+          <t>2022-09-08</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>På död välbearbetad gran.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1955,22 +1935,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Kristofer Holmsten</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Kristofer Holmsten</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>103206713</v>
+        <v>103636870</v>
       </c>
       <c r="B13" t="n">
-        <v>96334</v>
+        <v>56395</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1979,50 +1959,46 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Bergom/Kroksgård - Rödön, Jmt</t>
+          <t>Bergom - Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>472198.9007623708</v>
+        <v>472507.7934395059</v>
       </c>
       <c r="R13" t="n">
-        <v>7017350.364024058</v>
+        <v>7016954.384313107</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2049,7 +2025,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2022-08-22</t>
+          <t>2022-09-08</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2059,7 +2035,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2022-08-22</t>
+          <t>2022-09-08</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2073,7 +2049,6 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2092,10 +2067,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>103636893</v>
+        <v>103636872</v>
       </c>
       <c r="B14" t="n">
-        <v>96334</v>
+        <v>56395</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2104,38 +2079,46 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Bergom - Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>472928.6702964447</v>
+        <v>472519.833804908</v>
       </c>
       <c r="R14" t="n">
-        <v>7016573.647136474</v>
+        <v>7016939.429568958</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2204,10 +2187,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>103636892</v>
+        <v>106082248</v>
       </c>
       <c r="B15" t="n">
-        <v>96334</v>
+        <v>56395</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2216,41 +2199,53 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Bergom - Rödön, Jmt</t>
+          <t>Tretåig hackspett, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>472939.4717169611</v>
+        <v>472527.1055015869</v>
       </c>
       <c r="R15" t="n">
-        <v>7016571.755861398</v>
+        <v>7016946.568404312</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2274,22 +2269,27 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2022-09-08</t>
+          <t>2023-01-20</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2022-09-08</t>
+          <t>2023-01-20</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>På död välbearbetad gran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2304,12 +2304,12 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristofer Holmsten</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristofer Holmsten</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
